--- a/reverseprimer-v3_03.xlsx
+++ b/reverseprimer-v3_03.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="reverseprimer-v3_03" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>R0193-GTACTCAGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTACTCAGGAGTCTCGTGGGCTCGG</t>
+    <t>R0193-AGGATCTCCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGATCTCCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>R0194-ACTGACAACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTGACAACGGTCTCGTGGGCTCGG</t>
+    <t>R0194-ACATCCATGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACATCCATGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>R0195-GTCTACTCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCTACTCTAGTCTCGTGGGCTCGG</t>
+    <t>R0195-AACTCCTCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACTCCTCTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>R0196-TAGCAAGGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGCAAGGAAGTCTCGTGGGCTCGG</t>
+    <t>R0196-TAGGTAGTCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGGTAGTCCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>R0197-GTACGTCTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTACGTCTGAGTCTCGTGGGCTCGG</t>
+    <t>R0197-AGCAGTGTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCAGTGTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>R0198-TGCTCTGGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCTCTGGTAGTCTCGTGGGCTCGG</t>
+    <t>R0198-CTCACAAGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCACAAGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>R0199-GATGATGAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATGATGAGCGTCTCGTGGGCTCGG</t>
+    <t>R0199-ATGCTCAGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGCTCAGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>R0200-TGTCGAACAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTCGAACACGTCTCGTGGGCTCGG</t>
+    <t>R0200-GATCTGACTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATCTGACTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>R0201-AACTGCAACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACTGCAACTGTCTCGTGGGCTCGG</t>
+    <t>R0201-GAGATGAACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGATGAACCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>R0202-GTAGAGTAGG</t>
+    <t>R0202-GATCTACAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATCTACAAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>R0203-CTCAGTCCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCAGTCCTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>R0204-CACACTGAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACACTGAAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>R0205-GTGTACTGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGTACTGCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>R0206-TAGGACGACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGGACGACAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>R0207-TGATGTGCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGATGTGCACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>R0208-CTGTTCACGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGTTCACGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>R0209-CTGAAGATCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGAAGATCCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>R0210-AGATGTTGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGATGTTGTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>R0211-ACCATCAACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCATCAACGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>R0212-GAAGAGTCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGAGTCTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>R0213-TGTTCTGACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTTCTGACGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>R0214-AGATGGTACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGATGGTACCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>R0215-CCTAGTGTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTAGTGTCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>R0216-TCACGATGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCACGATGATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>R0217-CATCTGTTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATCTGTTCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>R0218-ACAGTCCAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGTCCAACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>R0219-AGGACAACCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGACAACCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>R0220-TGACAGTCGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGACAGTCGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>R0221-TCTGACAAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTGACAAGCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>R0222-TGAGTGAGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAGTGAGACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>R0223-CAACAGAGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAACAGAGAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>R0224-AAGTCGACCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGTCGACCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>R0225-ACTCAGTCGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTCAGTCGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>R0226-GGACTCATGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGACTCATGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>R0227-GTGCTACACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGCTACACTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>R0228-GATGAGTGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATGAGTGAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>R0229-CTGACTGAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGACTGAGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>R0230-ACAAGGTCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAAGGTCTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>R0231-TTGACGATCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGACGATCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>R0232-CTCTACTGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCTACTGGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>R0233-CAACGTCGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAACGTCGATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>R0234-GAGAGACTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGAGACTGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>R0235-CTCTCTACAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCTCTACACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>R0236-TACTACAGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACTACAGCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>R0237-TTCAGTGAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCAGTGAGGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>R0238-CTCAAGGAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCAAGGAACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>R0239-AAGGTGAGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGGTGAGCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>R0240-GAAGCAGACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGCAGACAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>R0241-TCTCCTCACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCCTCACAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>R0242-ACCTAGTGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCTAGTGCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>R0243-CTCTTGAACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCTTGAACAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>R0244-CTGTACAGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGTACAGACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>R0245-AACGTTGGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACGTTGGTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>R0246-GTAGAGACGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTAGAGACGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>R0247-ATCCATCACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCCATCACCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>R0248-AACAGTTCCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACAGTTCCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>R0249-TCTCAGGAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCAGGAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>R0250-GTACATCACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTACATCACGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>R0251-AGACGATCCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGACGATCCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>R0252-CTTGTGGAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTGTGGAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>R0253-TTCCTACACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCCTACACGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>R0254-GTAGAGTAGG</t>
   </si>
   <si>
     <t>CAAGCAGAAGACGGCATACGAGATGTAGAGTAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>R0203-ACCACCTCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCACCTCTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>R0204-TGCTTGAACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCTTGAACGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>R0205-CACGACTGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACGACTGTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>R0206-GCATGTCTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCATGTCTAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>R0207-AGTCAACAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTCAACAGCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>R0208-GTTCAGAGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTCAGAGGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>R0209-ATGAGTCCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGAGTCCATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>R0210-ACCTCAGTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCTCAGTGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>R0211-TCCACACTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCACACTACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>R0212-CTCGTACACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCGTACACTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>R0213-AGGAAGTCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGAAGTCATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>R0214-ACTTCCTCAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTTCCTCAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>R0215-ACCACATGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCACATGAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>R0216-AGTGCATCCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTGCATCCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>R0217-GCTCGAACAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTCGAACATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>R0218-CATCAGAACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATCAGAACAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>R0219-TCAACCTCAT</t>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>R0255-GAAGATCCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGATCCAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>R0256-TCTCCATGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCCATGTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>R0257-CGATCGAGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGATCGAGAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>R0258-TTGGAAGTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGGAAGTGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>R0259-TCACGACCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCACGACCTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>R0260-CAAGGTTGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAAGGTTGGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>R0261-AGGTACTGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGTACTGACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>R0262-TCTGACACCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTGACACCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>R0263-AGACATGCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGACATGCTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>R0264-ATCACAGCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCACAGCTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>R0265-CAACCTGCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAACCTGCTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>R0266-TGAGGACAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAGGACAAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>R0267-GTGTCAACGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGTCAACGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>R0268-TAGTCATCCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGTCATCCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>R0269-CGATCTAGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGATCTAGTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>R0270-CTCCTCTCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCCTCTCATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>R0271-TGTCTCTGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTCTCTGCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>R0272-TCAGAACTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAGAACTAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>R0273-TCAACCTCAT</t>
   </si>
   <si>
     <t>CAAGCAGAAGACGGCATACGAGATTCAACCTCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>R0220-AGTCTGCACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTCTGCACTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>R0221-GATGAAGCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATGAAGCTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>R0222-TGTGCTGGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTGCTGGATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>R0223-GATCCTCAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATCCTCAGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>R0224-TCGTAGTGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGTAGTGTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>R0225-ACTCATGACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCATGACCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>R0226-CAAGGAACGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAAGGAACGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>R0227-AGGTAGAGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGTAGAGGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>R0228-TTGAAGGAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGAAGGAGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>R0229-TCTGTCACAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTGTCACAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>R0230-TACACTGGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACACTGGTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>R0231-TAGAAGTTGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGAAGTTGCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>R0232-GTGAACAGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGAACAGTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>R0233-ACTGACTCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTGACTCATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>R0234-TACTCACTGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACTCACTGCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>R0235-GTAGAAGTCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTAGAAGTCGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>R0236-AGCACTTGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCACTTGCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>R0237-AGCAAGCAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCAAGCAGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>R0238-ACGAGTGATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGAGTGATGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>R0239-GAAGACACCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGACACCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>R0240-TGACACATGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGACACATGCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>R0241-TCGACACAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGACACAAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>R0242-TAGGTTCGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGGTTCGTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>R0243-TCAGAACGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAGAACGTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>R0244-CGAGTACTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGAGTACTGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>R0245-CCTACACGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTACACGATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>R0246-TTGTGATCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGTGATCTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>R0247-TCCTTCTCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCTTCTCATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>R0248-GGTTGATGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTTGATGTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>R0249-TCCTTGTAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCTTGTAGCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>R0250-CTTCGAACGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTCGAACGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>R0251-ACGAGTTCAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGAGTTCAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>R0252-AAGCACCTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGCACCTGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>R0253-TTGGAACTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGGAACTCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>R0254-TACAGTCACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACAGTCACCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>R0255-AAGTCACTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGTCACTAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>R0256-GAGGTTCTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGGTTCTACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>R0257-ACCAGTCAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCAGTCAAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>R0258-GTCTACACCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCTACACCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>R0259-AACGTCAGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACGTCAGTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>R0260-ATCTGCAGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCTGCAGTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>R0261-CGTAGTCGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTAGTCGAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>R0262-TACACGATCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACACGATCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>R0263-AGTTCTTCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTTCTTCTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>R0264-TGGAACACAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGAACACACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>R0265-TCTCGTAGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTCGTAGTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>R0266-TCCATCCAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCATCCAGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>R0267-GTTGGATGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTGGATGAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>R0268-TGCACAGCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCACAGCTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>R0269-AAGAGCAAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGAGCAAGGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>R0270-AACTTGTCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACTTGTCACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>R0271-AACGACATGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACGACATGCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>R0272-AGATGAACCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGATGAACCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G9</t>
-  </si>
-  <si>
-    <t>R0273-AGAGGAGCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAGGAGCTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
     <t>G10</t>
   </si>
   <si>
-    <t>R0274-TGAAGTGCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAAGTGCTTGTCTCGTGGGCTCGG</t>
+    <t>R0274-CACTCATGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACTCATGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>R0275-ATGACGTTCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGACGTTCCGTCTCGTGGGCTCGG</t>
+    <t>R0275-GTCTGACGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCTGACGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>R0276-AAGAGCTACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGAGCTACCGTCTCGTGGGCTCGG</t>
+    <t>R0276-TTGTACCACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGTACCACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>R0277-TGAACGACTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAACGACTTGTCTCGTGGGCTCGG</t>
+    <t>R0277-ATGTCACTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGTCACTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>R0278-CATGAGGATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATGAGGATCGTCTCGTGGGCTCGG</t>
+    <t>R0278-GTCTGGTTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCTGGTTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>R0279-CAAGTACGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAAGTACGAGGTCTCGTGGGCTCGG</t>
+    <t>R0279-TTCATGCTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCATGCTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>R0280-TACTCACACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACTCACACAGTCTCGTGGGCTCGG</t>
+    <t>R0280-CAAGTCCATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAAGTCCATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>R0281-GCAACATGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCAACATGATGTCTCGTGGGCTCGG</t>
+    <t>R0281-TAGCATCTGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGCATCTGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>R0282-AAGTGATGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGTGATGTGGTCTCGTGGGCTCGG</t>
+    <t>R0282-AACACGAACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACACGAACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>R0283-AGCTTGTTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCTTGTTCTGTCTCGTGGGCTCGG</t>
+    <t>R0283-TCTCAGAGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCAGAGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>R0284-CTTCATCTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTCATCTACGTCTCGTGGGCTCGG</t>
+    <t>R0284-CCAACTTGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCAACTTGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>R0285-AAGGTAGTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGGTAGTTGGTCTCGTGGGCTCGG</t>
+    <t>R0285-TAGCTTCGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGCTTCGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>R0286-AGAGAGATGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAGAGATGTGTCTCGTGGGCTCGG</t>
+    <t>R0286-TCGTTGAGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGTTGAGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>R0287-GACGAACACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACGAACACTGTCTCGTGGGCTCGG</t>
+    <t>R0287-CAGTTCACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGTTCACAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>R0288-TCATCACAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCATCACAGCGTCTCGTGGGCTCGG</t>
+    <t>R0288-GAACGAGAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACGAGAGAGTCTCGTGGGCTCGG</t>
   </si>
 </sst>
 </file>
